--- a/european_co2_by_sector.xlsx
+++ b/european_co2_by_sector.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://afonline-my.sharepoint.com/personal/atte_koskivaara_afry_com/Documents/Documents/Other/co2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{D6196CE0-BF3F-466E-A9BA-6CF53AACB6C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{4D249B3D-0560-44F0-B531-020441986B46}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB2ABC75-1BD7-4AE3-BD25-C6E18DAD4603}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10548" xr2:uid="{9066C777-1A25-4FB9-8FD1-221D3F91B45E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10788" xr2:uid="{0A2CCA7A-000C-46FB-B56C-7AAE59A30818}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Energy</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Fuel combustion in energy industries</t>
+  </si>
+  <si>
+    <t>Fuel combustion in manufacturing industries and construction</t>
+  </si>
+  <si>
+    <t>Transport</t>
   </si>
   <si>
     <t>Industrial processes and product use</t>
@@ -132,12 +144,6 @@
   </si>
   <si>
     <t>2018</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -146,7 +152,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _z_ł_-;\-* #,##0\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -187,7 +193,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -502,709 +508,892 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6C5B26-847D-449A-BD10-7EFA0728C587}">
-  <dimension ref="A1:G30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BBA466-788A-49DB-BA44-8991E3BCC4EE}">
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
         <v>5652164.5099999998</v>
       </c>
       <c r="C2" s="1">
-        <v>4346403.88</v>
+        <v>1868955.91</v>
       </c>
       <c r="D2" s="1">
+        <v>1683399.98</v>
+      </c>
+      <c r="E2" s="1">
+        <v>794047.99</v>
+      </c>
+      <c r="F2" s="1">
         <v>515208.15</v>
       </c>
-      <c r="E2" s="1">
+      <c r="G2" s="1">
         <v>545611.41</v>
       </c>
-      <c r="F2" s="1">
+      <c r="H2" s="1">
         <v>-254905.24</v>
       </c>
-      <c r="G2" s="1">
+      <c r="I2" s="1">
         <v>240731.69</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>5557239.9299999997</v>
       </c>
       <c r="C3" s="1">
-        <v>4313749.3099999996</v>
+        <v>1821249.26</v>
       </c>
       <c r="D3" s="1">
+        <v>1691048.08</v>
+      </c>
+      <c r="E3" s="1">
+        <v>801451.98</v>
+      </c>
+      <c r="F3" s="1">
         <v>480600.37</v>
       </c>
-      <c r="E3" s="1">
+      <c r="G3" s="1">
         <v>514579.55</v>
       </c>
-      <c r="F3" s="1">
+      <c r="H3" s="1">
         <v>-281289.15999999997</v>
       </c>
-      <c r="G3" s="1">
+      <c r="I3" s="1">
         <v>244303.87</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>5384579.6399999997</v>
       </c>
       <c r="C4" s="1">
-        <v>4180808.74</v>
+        <v>1759315.97</v>
       </c>
       <c r="D4" s="1">
+        <v>1596492.6400000001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>825000.13</v>
+      </c>
+      <c r="F4" s="1">
         <v>462152</v>
       </c>
-      <c r="E4" s="1">
+      <c r="G4" s="1">
         <v>491411.32</v>
       </c>
-      <c r="F4" s="1">
+      <c r="H4" s="1">
         <v>-249926</v>
       </c>
-      <c r="G4" s="1">
+      <c r="I4" s="1">
         <v>246408.48</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>5284646.72</v>
       </c>
       <c r="C5" s="1">
-        <v>4100487.07</v>
+        <v>1689156.59</v>
       </c>
       <c r="D5" s="1">
+        <v>1581792.13</v>
+      </c>
+      <c r="E5" s="1">
+        <v>829538.34</v>
+      </c>
+      <c r="F5" s="1">
         <v>454067.61</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="1">
         <v>479045.21</v>
       </c>
-      <c r="F5" s="1">
+      <c r="H5" s="1">
         <v>-250754.47</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
         <v>247342.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1">
         <v>5258772.8600000003</v>
       </c>
       <c r="C6" s="1">
-        <v>4052876.74</v>
+        <v>1684263.29</v>
       </c>
       <c r="D6" s="1">
+        <v>1532428.1600000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>836185.29</v>
+      </c>
+      <c r="F6" s="1">
         <v>482258.94</v>
       </c>
-      <c r="E6" s="1">
+      <c r="G6" s="1">
         <v>473137.29</v>
       </c>
-      <c r="F6" s="1">
+      <c r="H6" s="1">
         <v>-259786.31</v>
       </c>
-      <c r="G6" s="1">
+      <c r="I6" s="1">
         <v>246896.24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1">
         <v>5308798.6900000004</v>
       </c>
       <c r="C7" s="1">
-        <v>4086096.15</v>
+        <v>1686785.73</v>
       </c>
       <c r="D7" s="1">
+        <v>1550787.46</v>
+      </c>
+      <c r="E7" s="1">
+        <v>848522.97</v>
+      </c>
+      <c r="F7" s="1">
         <v>497554.32</v>
       </c>
-      <c r="E7" s="1">
+      <c r="G7" s="1">
         <v>473941.82</v>
       </c>
-      <c r="F7" s="1">
+      <c r="H7" s="1">
         <v>-282651.71000000002</v>
       </c>
-      <c r="G7" s="1">
+      <c r="I7" s="1">
         <v>247696.58</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
         <v>5421171.8399999999</v>
       </c>
       <c r="C8" s="1">
-        <v>4196025.01</v>
+        <v>1711558.9000000001</v>
       </c>
       <c r="D8" s="1">
+        <v>1609439.62</v>
+      </c>
+      <c r="E8" s="1">
+        <v>875026.5</v>
+      </c>
+      <c r="F8" s="1">
         <v>498646.18</v>
       </c>
-      <c r="E8" s="1">
+      <c r="G8" s="1">
         <v>475884.38</v>
       </c>
-      <c r="F8" s="1">
+      <c r="H8" s="1">
         <v>-311160.01</v>
       </c>
-      <c r="G8" s="1">
+      <c r="I8" s="1">
         <v>247204.02</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
         <v>5327233.22</v>
       </c>
       <c r="C9" s="1">
-        <v>4102569.81</v>
+        <v>1667649.97</v>
       </c>
       <c r="D9" s="1">
+        <v>1548845.61</v>
+      </c>
+      <c r="E9" s="1">
+        <v>886074.23</v>
+      </c>
+      <c r="F9" s="1">
         <v>504019.67</v>
       </c>
-      <c r="E9" s="1">
+      <c r="G9" s="1">
         <v>472999.53</v>
       </c>
-      <c r="F9" s="1">
+      <c r="H9" s="1">
         <v>-308868.99</v>
       </c>
-      <c r="G9" s="1">
+      <c r="I9" s="1">
         <v>244340.52</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1">
         <v>5286520.08</v>
       </c>
       <c r="C10" s="1">
-        <v>4090955.71</v>
+        <v>1665467.59</v>
       </c>
       <c r="D10" s="1">
+        <v>1510518.0699999998</v>
+      </c>
+      <c r="E10" s="1">
+        <v>914970.06</v>
+      </c>
+      <c r="F10" s="1">
         <v>481189.43</v>
       </c>
-      <c r="E10" s="1">
+      <c r="G10" s="1">
         <v>470449.74</v>
       </c>
-      <c r="F10" s="1">
+      <c r="H10" s="1">
         <v>-323815.69</v>
       </c>
-      <c r="G10" s="1">
+      <c r="I10" s="1">
         <v>240705.98</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1">
         <v>5177392.18</v>
       </c>
       <c r="C11" s="1">
-        <v>4028865.66</v>
+        <v>1613239.8699999999</v>
       </c>
       <c r="D11" s="1">
+        <v>1482648.76</v>
+      </c>
+      <c r="E11" s="1">
+        <v>932977.03</v>
+      </c>
+      <c r="F11" s="1">
         <v>441562.34</v>
       </c>
-      <c r="E11" s="1">
+      <c r="G11" s="1">
         <v>468638.83</v>
       </c>
-      <c r="F11" s="1">
+      <c r="H11" s="1">
         <v>-332848.89</v>
       </c>
-      <c r="G11" s="1">
+      <c r="I11" s="1">
         <v>235312.62</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1">
         <v>5170382.01</v>
       </c>
       <c r="C12" s="1">
-        <v>4018055.65</v>
+        <v>1635364.31</v>
       </c>
       <c r="D12" s="1">
+        <v>1454913.9100000001</v>
+      </c>
+      <c r="E12" s="1">
+        <v>927777.44</v>
+      </c>
+      <c r="F12" s="1">
         <v>453932.69</v>
       </c>
-      <c r="E12" s="1">
+      <c r="G12" s="1">
         <v>463319.06</v>
       </c>
-      <c r="F12" s="1">
+      <c r="H12" s="1">
         <v>-313971.75</v>
       </c>
-      <c r="G12" s="1">
+      <c r="I12" s="1">
         <v>232218.16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1">
         <v>5219439.0199999996</v>
       </c>
       <c r="C13" s="1">
-        <v>4092165.42</v>
+        <v>1668199.76</v>
       </c>
       <c r="D13" s="1">
+        <v>1482936.2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>941029.46</v>
+      </c>
+      <c r="F13" s="1">
         <v>438591.65</v>
       </c>
-      <c r="E13" s="1">
+      <c r="G13" s="1">
         <v>457784.7</v>
       </c>
-      <c r="F13" s="1">
+      <c r="H13" s="1">
         <v>-331193.81</v>
       </c>
-      <c r="G13" s="1">
+      <c r="I13" s="1">
         <v>228151.06</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1">
         <v>5186523.33</v>
       </c>
       <c r="C14" s="1">
-        <v>4074509.17</v>
+        <v>1688386.45</v>
       </c>
       <c r="D14" s="1">
+        <v>1433857.73</v>
+      </c>
+      <c r="E14" s="1">
+        <v>952264.99</v>
+      </c>
+      <c r="F14" s="1">
         <v>435115.7</v>
       </c>
-      <c r="E14" s="1">
+      <c r="G14" s="1">
         <v>450122.43</v>
       </c>
-      <c r="F14" s="1">
+      <c r="H14" s="1">
         <v>-315010.46999999997</v>
       </c>
-      <c r="G14" s="1">
+      <c r="I14" s="1">
         <v>224161.01</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1">
         <v>5275382.37</v>
       </c>
       <c r="C15" s="1">
-        <v>4158282.73</v>
+        <v>1741391.03</v>
       </c>
       <c r="D15" s="1">
+        <v>1456035.58</v>
+      </c>
+      <c r="E15" s="1">
+        <v>960856.11</v>
+      </c>
+      <c r="F15" s="1">
         <v>450101.26</v>
       </c>
-      <c r="E15" s="1">
+      <c r="G15" s="1">
         <v>446055.43</v>
       </c>
-      <c r="F15" s="1">
+      <c r="H15" s="1">
         <v>-293968.42</v>
       </c>
-      <c r="G15" s="1">
+      <c r="I15" s="1">
         <v>218365.33</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
         <v>5278005.5999999996</v>
       </c>
       <c r="C16" s="1">
-        <v>4151490.52</v>
+        <v>1735520.27</v>
       </c>
       <c r="D16" s="1">
+        <v>1435617.4300000002</v>
+      </c>
+      <c r="E16" s="1">
+        <v>980352.82</v>
+      </c>
+      <c r="F16" s="1">
         <v>466816.86</v>
       </c>
-      <c r="E16" s="1">
+      <c r="G16" s="1">
         <v>447413.3</v>
       </c>
-      <c r="F16" s="1">
+      <c r="H16" s="1">
         <v>-324230.74</v>
       </c>
-      <c r="G16" s="1">
+      <c r="I16" s="1">
         <v>209807.21</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1">
         <v>5242538.57</v>
       </c>
       <c r="C17" s="1">
-        <v>4129793.76</v>
+        <v>1713772.24</v>
       </c>
       <c r="D17" s="1">
+        <v>1436249.9500000002</v>
+      </c>
+      <c r="E17" s="1">
+        <v>979771.57</v>
+      </c>
+      <c r="F17" s="1">
         <v>466655.94</v>
       </c>
-      <c r="E17" s="1">
+      <c r="G17" s="1">
         <v>440630.12</v>
       </c>
-      <c r="F17" s="1">
+      <c r="H17" s="1">
         <v>-319864.56</v>
       </c>
-      <c r="G17" s="1">
+      <c r="I17" s="1">
         <v>202964.63</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1">
         <v>5229326.5599999996</v>
       </c>
       <c r="C18" s="1">
-        <v>4128589.41</v>
+        <v>1722713.5</v>
       </c>
       <c r="D18" s="1">
+        <v>1418630.53</v>
+      </c>
+      <c r="E18" s="1">
+        <v>987245.37</v>
+      </c>
+      <c r="F18" s="1">
         <v>465113.11</v>
       </c>
-      <c r="E18" s="1">
+      <c r="G18" s="1">
         <v>436515.86</v>
       </c>
-      <c r="F18" s="1">
+      <c r="H18" s="1">
         <v>-343076.41</v>
       </c>
-      <c r="G18" s="1">
+      <c r="I18" s="1">
         <v>196625.78</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1">
         <v>5180785.5199999996</v>
       </c>
       <c r="C19" s="1">
-        <v>4072825.14</v>
+        <v>1728814.53</v>
       </c>
       <c r="D19" s="1">
+        <v>1347148.19</v>
+      </c>
+      <c r="E19" s="1">
+        <v>996862.43</v>
+      </c>
+      <c r="F19" s="1">
         <v>476323.62</v>
       </c>
-      <c r="E19" s="1">
+      <c r="G19" s="1">
         <v>439304.33</v>
       </c>
-      <c r="F19" s="1">
+      <c r="H19" s="1">
         <v>-307963.23</v>
       </c>
-      <c r="G19" s="1">
+      <c r="I19" s="1">
         <v>189924.03</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1">
         <v>5064765.7300000004</v>
       </c>
       <c r="C20" s="1">
-        <v>3992220.98</v>
+        <v>1652144.74</v>
       </c>
       <c r="D20" s="1">
+        <v>1367961.03</v>
+      </c>
+      <c r="E20" s="1">
+        <v>972115.21</v>
+      </c>
+      <c r="F20" s="1">
         <v>451611.62</v>
       </c>
-      <c r="E20" s="1">
+      <c r="G20" s="1">
         <v>436635.25</v>
       </c>
-      <c r="F20" s="1">
+      <c r="H20" s="1">
         <v>-338740.02</v>
       </c>
-      <c r="G20" s="1">
+      <c r="I20" s="1">
         <v>181988.26</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1">
         <v>4693943.46</v>
       </c>
       <c r="C21" s="1">
-        <v>3709011.98</v>
+        <v>1520942.8</v>
       </c>
       <c r="D21" s="1">
+        <v>1243568.83</v>
+      </c>
+      <c r="E21" s="1">
+        <v>944500.35</v>
+      </c>
+      <c r="F21" s="1">
         <v>376616.8</v>
       </c>
-      <c r="E21" s="1">
+      <c r="G21" s="1">
         <v>430087.85</v>
       </c>
-      <c r="F21" s="1">
+      <c r="H21" s="1">
         <v>-337891.55</v>
       </c>
-      <c r="G21" s="1">
+      <c r="I21" s="1">
         <v>176069.73</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1">
         <v>4798807.1500000004</v>
       </c>
       <c r="C22" s="1">
-        <v>3807923.93</v>
+        <v>1547486.09</v>
       </c>
       <c r="D22" s="1">
+        <v>1321411.8999999999</v>
+      </c>
+      <c r="E22" s="1">
+        <v>939025.95</v>
+      </c>
+      <c r="F22" s="1">
         <v>394455.75</v>
       </c>
-      <c r="E22" s="1">
+      <c r="G22" s="1">
         <v>425622.95</v>
       </c>
-      <c r="F22" s="1">
+      <c r="H22" s="1">
         <v>-334759.08</v>
       </c>
-      <c r="G22" s="1">
+      <c r="I22" s="1">
         <v>168601.13</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1">
         <v>4638628.6100000003</v>
       </c>
       <c r="C23" s="1">
-        <v>3657507.31</v>
+        <v>1520870.3599999999</v>
       </c>
       <c r="D23" s="1">
+        <v>1209618.96</v>
+      </c>
+      <c r="E23" s="1">
+        <v>927017.99</v>
+      </c>
+      <c r="F23" s="1">
         <v>390060.73</v>
       </c>
-      <c r="E23" s="1">
+      <c r="G23" s="1">
         <v>426127.91</v>
       </c>
-      <c r="F23" s="1">
+      <c r="H23" s="1">
         <v>-329764.87</v>
       </c>
-      <c r="G23" s="1">
+      <c r="I23" s="1">
         <v>162845.26999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1">
         <v>4576663.5599999996</v>
       </c>
       <c r="C24" s="1">
-        <v>3614453.49</v>
+        <v>1512101.04</v>
       </c>
       <c r="D24" s="1">
+        <v>1205914.19</v>
+      </c>
+      <c r="E24" s="1">
+        <v>896438.26</v>
+      </c>
+      <c r="F24" s="1">
         <v>377327.89</v>
       </c>
-      <c r="E24" s="1">
+      <c r="G24" s="1">
         <v>424190.2</v>
       </c>
-      <c r="F24" s="1">
+      <c r="H24" s="1">
         <v>-331929.88</v>
       </c>
-      <c r="G24" s="1">
+      <c r="I24" s="1">
         <v>158683.04999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1">
         <v>4478951.7699999996</v>
       </c>
       <c r="C25" s="1">
-        <v>3521930.57</v>
+        <v>1435361.99</v>
       </c>
       <c r="D25" s="1">
+        <v>1196353.23</v>
+      </c>
+      <c r="E25" s="1">
+        <v>890215.35</v>
+      </c>
+      <c r="F25" s="1">
         <v>375174.48</v>
       </c>
-      <c r="E25" s="1">
+      <c r="G25" s="1">
         <v>427583.58</v>
       </c>
-      <c r="F25" s="1">
+      <c r="H25" s="1">
         <v>-333665.55</v>
       </c>
-      <c r="G25" s="1">
+      <c r="I25" s="1">
         <v>152403.38</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1">
         <v>4302544.79</v>
       </c>
       <c r="C26" s="1">
-        <v>3337424.99</v>
+        <v>1348269.76</v>
       </c>
       <c r="D26" s="1">
+        <v>1091427.23</v>
+      </c>
+      <c r="E26" s="1">
+        <v>897728.01</v>
+      </c>
+      <c r="F26" s="1">
         <v>381559.89</v>
       </c>
-      <c r="E26" s="1">
+      <c r="G26" s="1">
         <v>435105.91</v>
       </c>
-      <c r="F26" s="1">
+      <c r="H26" s="1">
         <v>-312307.71000000002</v>
       </c>
-      <c r="G26" s="1">
+      <c r="I26" s="1">
         <v>146656.98000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B27" s="1">
         <v>4337135.5</v>
       </c>
       <c r="C27" s="1">
-        <v>3377393.82</v>
+        <v>1334020.25</v>
       </c>
       <c r="D27" s="1">
+        <v>1128684.4300000002</v>
+      </c>
+      <c r="E27" s="1">
+        <v>914689.15</v>
+      </c>
+      <c r="F27" s="1">
         <v>376979.32</v>
       </c>
-      <c r="E27" s="1">
+      <c r="G27" s="1">
         <v>436814.17</v>
       </c>
-      <c r="F27" s="1">
+      <c r="H27" s="1">
         <v>-303218.77</v>
       </c>
-      <c r="G27" s="1">
+      <c r="I27" s="1">
         <v>144159.85999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B28" s="1">
         <v>4310161.29</v>
       </c>
       <c r="C28" s="1">
-        <v>3356515.12</v>
+        <v>1283532.8599999999</v>
       </c>
       <c r="D28" s="1">
+        <v>1137551.69</v>
+      </c>
+      <c r="E28" s="1">
+        <v>935430.57</v>
+      </c>
+      <c r="F28" s="1">
         <v>373711.08</v>
       </c>
-      <c r="E28" s="1">
+      <c r="G28" s="1">
         <v>437221.04</v>
       </c>
-      <c r="F28" s="1">
+      <c r="H28" s="1">
         <v>-296191.76</v>
       </c>
-      <c r="G28" s="1">
+      <c r="I28" s="1">
         <v>140974.84</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1">
         <v>4324794.57</v>
       </c>
       <c r="C29" s="1">
-        <v>3362610.74</v>
+        <v>1266553.92</v>
       </c>
       <c r="D29" s="1">
+        <v>1146623.04</v>
+      </c>
+      <c r="E29" s="1">
+        <v>949433.78</v>
+      </c>
+      <c r="F29" s="1">
         <v>379874.69</v>
       </c>
-      <c r="E29" s="1">
+      <c r="G29" s="1">
         <v>440800.16</v>
       </c>
-      <c r="F29" s="1">
+      <c r="H29" s="1">
         <v>-261677.06</v>
       </c>
-      <c r="G29" s="1">
+      <c r="I29" s="1">
         <v>139781.12</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1">
         <v>4225970.07</v>
       </c>
       <c r="C30" s="1">
-        <v>3279195.41</v>
+        <v>1192783.56</v>
       </c>
       <c r="D30" s="1">
+        <v>1136355.72</v>
+      </c>
+      <c r="E30" s="1">
+        <v>950056.12</v>
+      </c>
+      <c r="F30" s="1">
         <v>371911.93</v>
       </c>
-      <c r="E30" s="1">
+      <c r="G30" s="1">
         <v>435262.69</v>
       </c>
-      <c r="F30" s="1">
+      <c r="H30" s="1">
         <v>-272964.37</v>
       </c>
-      <c r="G30" s="1">
+      <c r="I30" s="1">
         <v>137988.26</v>
       </c>
     </row>
@@ -1410,7 +1599,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E17843C-1D7C-4976-A167-1D2FB5DF1DA5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE240C43-53F8-41EC-A7E2-35EABEDAB00B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -1428,7 +1617,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27360706-D33C-4987-8186-FD61971A8CD8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79D438DB-D769-4F79-A67C-52EA5F1E9399}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
@@ -1436,7 +1625,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAA24EBF-B958-4A86-85F8-FFEE518024E7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B2EC7A6-2685-4247-A699-10BEE91C0114}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>

--- a/european_co2_by_sector.xlsx
+++ b/european_co2_by_sector.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://afonline-my.sharepoint.com/personal/atte_koskivaara_afry_com/Documents/Documents/Other/co2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mre275\OneDrive - AF\Documents\Other\co2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB2ABC75-1BD7-4AE3-BD25-C6E18DAD4603}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{BB2ABC75-1BD7-4AE3-BD25-C6E18DAD4603}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{96983980-0D26-40CD-A756-FE5132CF92AB}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10788" xr2:uid="{0A2CCA7A-000C-46FB-B56C-7AAE59A30818}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Year</t>
   </si>
@@ -144,15 +144,121 @@
   </si>
   <si>
     <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>2028</t>
+  </si>
+  <si>
+    <t>2029</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>2031</t>
+  </si>
+  <si>
+    <t>2032</t>
+  </si>
+  <si>
+    <t>2033</t>
+  </si>
+  <si>
+    <t>2034</t>
+  </si>
+  <si>
+    <t>2035</t>
+  </si>
+  <si>
+    <t>2036</t>
+  </si>
+  <si>
+    <t>2037</t>
+  </si>
+  <si>
+    <t>2038</t>
+  </si>
+  <si>
+    <t>2039</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>2041</t>
+  </si>
+  <si>
+    <t>2042</t>
+  </si>
+  <si>
+    <t>2043</t>
+  </si>
+  <si>
+    <t>2044</t>
+  </si>
+  <si>
+    <t>2045</t>
+  </si>
+  <si>
+    <t>2046</t>
+  </si>
+  <si>
+    <t>2047</t>
+  </si>
+  <si>
+    <t>2048</t>
+  </si>
+  <si>
+    <t>2049</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>2050 - target</t>
+  </si>
+  <si>
+    <t>2030 - target (-40%)</t>
+  </si>
+  <si>
+    <t>2030 - target (-55%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ _z_ł_-;\-* #,##0\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _z_ł_-;\-* #,##0\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -191,9 +297,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -509,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BBA466-788A-49DB-BA44-8991E3BCC4EE}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,9 +633,11 @@
     <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="43.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -555,8 +665,17 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -585,7 +704,7 @@
         <v>240731.69</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -614,7 +733,7 @@
         <v>244303.87</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -643,7 +762,7 @@
         <v>246408.48</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -672,7 +791,7 @@
         <v>247342.33</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -701,7 +820,7 @@
         <v>246896.24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -730,7 +849,7 @@
         <v>247696.58</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -759,7 +878,7 @@
         <v>247204.02</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -788,7 +907,7 @@
         <v>244340.52</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -817,7 +936,7 @@
         <v>240705.98</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -846,7 +965,7 @@
         <v>235312.62</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -875,7 +994,7 @@
         <v>232218.16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -904,7 +1023,7 @@
         <v>228151.06</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -933,7 +1052,7 @@
         <v>224161.01</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -962,7 +1081,7 @@
         <v>218365.33</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1395,6 +1514,175 @@
       </c>
       <c r="I30" s="1">
         <v>137988.26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="K42" s="3">
+        <v>3391298.7059999998</v>
+      </c>
+      <c r="L42" s="3">
+        <v>2543474.0295000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="J62" s="2">
+        <v>272964.37</v>
       </c>
     </row>
   </sheetData>
@@ -1584,18 +1872,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1617,25 +1905,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79D438DB-D769-4F79-A67C-52EA5F1E9399}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B2EC7A6-2685-4247-A699-10BEE91C0114}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="70ba084a-0082-4287-b2e5-8aa8ab3b3f0d"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79D438DB-D769-4F79-A67C-52EA5F1E9399}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>